--- a/엑셀.xlsx
+++ b/엑셀.xlsx
@@ -422,54 +422,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/엑셀.xlsx
+++ b/엑셀.xlsx
@@ -7,7 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0번시트2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0번시트1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0번시트" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1번 시트" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +420,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -462,4 +523,76 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>